--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ พี เดี๋ยวรวม.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ พี เดี๋ยวรวม.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9017AF-0614-4AE7-8A7C-7DCF4B877502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD7F32-07E7-4ABB-8C1E-BA7E11F485C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>คำผิด</t>
   </si>
@@ -110,12 +110,19 @@
   <si>
     <t>กิตติพศ</t>
   </si>
+  <si>
+    <t>v1.2.1</t>
+  </si>
+  <si>
+    <t>UC Description 
+มอดูลพนักงานขับรถ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +144,15 @@
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,9 +238,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -237,10 +254,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,20 +281,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -595,89 +618,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
     </row>
     <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
     </row>
     <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -718,7 +741,7 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="18"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -753,7 +776,7 @@
       <c r="W5" s="4"/>
     </row>
     <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -766,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -785,7 +808,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2">
         <f>SUM(F6:Q6)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -793,24 +816,41 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+    <row r="7" spans="2:23" ht="60.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>242718</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <f>SUM(F7:Q7)</f>
+        <v>4</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -818,7 +858,7 @@
       <c r="W7" s="4"/>
     </row>
     <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B8" s="6"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -842,7 +882,7 @@
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B9" s="6"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -866,7 +906,7 @@
       <c r="W9" s="4"/>
     </row>
     <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -890,7 +930,7 @@
       <c r="W10" s="4"/>
     </row>
     <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -914,7 +954,7 @@
       <c r="W11" s="4"/>
     </row>
     <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -938,7 +978,7 @@
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -962,7 +1002,7 @@
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -986,7 +1026,7 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1010,7 +1050,7 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1034,7 +1074,7 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1058,7 +1098,7 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1082,7 +1122,7 @@
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1106,7 +1146,7 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1130,7 +1170,7 @@
       <c r="W20" s="4"/>
     </row>
     <row r="21" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1154,7 +1194,7 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1178,7 +1218,7 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1202,7 +1242,7 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B24" s="6"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1226,7 +1266,7 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1250,7 +1290,7 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1274,7 +1314,7 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1298,7 +1338,7 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B28" s="6"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1322,7 +1362,7 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B29" s="6"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1346,7 +1386,7 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B30" s="6"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1370,7 +1410,7 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B31" s="6"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1394,7 +1434,7 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B32" s="6"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1418,7 +1458,7 @@
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B33" s="6"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1442,7 +1482,7 @@
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B34" s="6"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1466,7 +1506,7 @@
       <c r="W34" s="4"/>
     </row>
     <row r="35" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B35" s="6"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1490,7 +1530,7 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B36" s="6"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1514,7 +1554,7 @@
       <c r="W36" s="4"/>
     </row>
     <row r="37" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B37" s="6"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1538,7 +1578,7 @@
       <c r="W37" s="4"/>
     </row>
     <row r="38" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B38" s="6"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1562,7 +1602,7 @@
       <c r="W38" s="4"/>
     </row>
     <row r="39" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B39" s="6"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1586,7 +1626,7 @@
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B40" s="6"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1610,7 +1650,7 @@
       <c r="W40" s="4"/>
     </row>
     <row r="41" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B41" s="6"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1634,7 +1674,7 @@
       <c r="W41" s="4"/>
     </row>
     <row r="42" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B42" s="6"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1658,7 +1698,7 @@
       <c r="W42" s="4"/>
     </row>
     <row r="43" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B43" s="6"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1682,7 +1722,7 @@
       <c r="W43" s="4"/>
     </row>
     <row r="44" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B44" s="6"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1706,7 +1746,7 @@
       <c r="W44" s="4"/>
     </row>
     <row r="45" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B45" s="6"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1730,7 +1770,7 @@
       <c r="W45" s="4"/>
     </row>
     <row r="46" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B46" s="6"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1754,7 +1794,7 @@
       <c r="W46" s="4"/>
     </row>
     <row r="47" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B47" s="6"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1778,7 +1818,7 @@
       <c r="W47" s="4"/>
     </row>
     <row r="48" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B48" s="6"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1802,7 +1842,7 @@
       <c r="W48" s="4"/>
     </row>
     <row r="49" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B49" s="6"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1826,7 +1866,7 @@
       <c r="W49" s="4"/>
     </row>
     <row r="50" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B50" s="6"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1850,7 +1890,7 @@
       <c r="W50" s="4"/>
     </row>
     <row r="51" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B51" s="6"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1874,7 +1914,7 @@
       <c r="W51" s="4"/>
     </row>
     <row r="52" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B52" s="6"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1898,7 +1938,7 @@
       <c r="W52" s="4"/>
     </row>
     <row r="53" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B53" s="6"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1922,7 +1962,7 @@
       <c r="W53" s="4"/>
     </row>
     <row r="54" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B54" s="6"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1946,7 +1986,7 @@
       <c r="W54" s="4"/>
     </row>
     <row r="55" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B55" s="6"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1970,7 +2010,7 @@
       <c r="W55" s="4"/>
     </row>
     <row r="56" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B56" s="6"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1994,7 +2034,7 @@
       <c r="W56" s="4"/>
     </row>
     <row r="57" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B57" s="6"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2018,7 +2058,7 @@
       <c r="W57" s="4"/>
     </row>
     <row r="58" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B58" s="6"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2042,7 +2082,7 @@
       <c r="W58" s="4"/>
     </row>
     <row r="59" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B59" s="6"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2066,7 +2106,7 @@
       <c r="W59" s="4"/>
     </row>
     <row r="60" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B60" s="6"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2090,7 +2130,7 @@
       <c r="W60" s="4"/>
     </row>
     <row r="61" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B61" s="6"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2114,7 +2154,7 @@
       <c r="W61" s="4"/>
     </row>
     <row r="62" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B62" s="6"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2138,7 +2178,7 @@
       <c r="W62" s="4"/>
     </row>
     <row r="63" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B63" s="6"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2162,7 +2202,7 @@
       <c r="W63" s="4"/>
     </row>
     <row r="64" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B64" s="6"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2186,7 +2226,7 @@
       <c r="W64" s="4"/>
     </row>
     <row r="65" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B65" s="6"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2210,7 +2250,7 @@
       <c r="W65" s="4"/>
     </row>
     <row r="66" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B66" s="6"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2234,7 +2274,7 @@
       <c r="W66" s="4"/>
     </row>
     <row r="67" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B67" s="6"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2258,7 +2298,7 @@
       <c r="W67" s="4"/>
     </row>
     <row r="68" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B68" s="6"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2282,7 +2322,7 @@
       <c r="W68" s="4"/>
     </row>
     <row r="69" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B69" s="6"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2306,1909 +2346,1894 @@
       <c r="W69" s="4"/>
     </row>
     <row r="70" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
       <c r="W70" s="4"/>
     </row>
     <row r="71" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
       <c r="W71" s="4"/>
     </row>
     <row r="72" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
       <c r="W72" s="4"/>
     </row>
     <row r="73" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
       <c r="W73" s="4"/>
     </row>
     <row r="74" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
       <c r="W74" s="4"/>
     </row>
     <row r="75" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
       <c r="W75" s="4"/>
     </row>
     <row r="76" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
       <c r="W76" s="4"/>
     </row>
     <row r="77" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
       <c r="W77" s="4"/>
     </row>
     <row r="78" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
       <c r="W78" s="4"/>
     </row>
     <row r="79" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
       <c r="W79" s="4"/>
     </row>
     <row r="80" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
       <c r="W80" s="4"/>
     </row>
     <row r="81" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
       <c r="W81" s="4"/>
     </row>
     <row r="82" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
       <c r="W82" s="4"/>
     </row>
     <row r="83" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
       <c r="W83" s="4"/>
     </row>
     <row r="84" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
       <c r="W84" s="4"/>
     </row>
     <row r="85" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
       <c r="W85" s="4"/>
     </row>
     <row r="86" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
       <c r="W86" s="4"/>
     </row>
     <row r="87" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
       <c r="W87" s="4"/>
     </row>
     <row r="88" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
       <c r="W88" s="4"/>
     </row>
     <row r="89" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
       <c r="W89" s="4"/>
     </row>
     <row r="90" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
       <c r="W90" s="4"/>
     </row>
     <row r="91" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
       <c r="W91" s="4"/>
     </row>
     <row r="92" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
       <c r="W92" s="4"/>
     </row>
     <row r="93" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="8"/>
-      <c r="V93" s="8"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
       <c r="W93" s="4"/>
     </row>
     <row r="94" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="8"/>
-      <c r="V94" s="8"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
       <c r="W94" s="4"/>
     </row>
     <row r="95" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="8"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
       <c r="W95" s="4"/>
     </row>
     <row r="96" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="8"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
       <c r="W96" s="4"/>
     </row>
     <row r="97" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
       <c r="W97" s="4"/>
     </row>
     <row r="98" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
       <c r="W98" s="4"/>
     </row>
     <row r="99" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="8"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
       <c r="W99" s="4"/>
     </row>
     <row r="100" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B100" s="6"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="8"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
       <c r="W100" s="4"/>
     </row>
     <row r="101" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B101" s="6"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="8"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
       <c r="W101" s="4"/>
     </row>
     <row r="102" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B102" s="6"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="8"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
       <c r="W102" s="4"/>
     </row>
     <row r="103" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
       <c r="W103" s="4"/>
     </row>
     <row r="104" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B104" s="6"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="8"/>
-      <c r="V104" s="8"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
       <c r="W104" s="4"/>
     </row>
     <row r="105" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="8"/>
-      <c r="V105" s="8"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
       <c r="W105" s="4"/>
     </row>
     <row r="106" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B106" s="6"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="8"/>
-      <c r="V106" s="8"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
       <c r="W106" s="4"/>
     </row>
     <row r="107" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="8"/>
-      <c r="T107" s="8"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="8"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
       <c r="W107" s="4"/>
     </row>
     <row r="108" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B108" s="6"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="8"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="8"/>
-      <c r="V108" s="8"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
       <c r="W108" s="4"/>
     </row>
     <row r="109" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
       <c r="W109" s="4"/>
     </row>
     <row r="110" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B110" s="6"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
       <c r="W110" s="4"/>
     </row>
     <row r="111" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
       <c r="W111" s="4"/>
     </row>
     <row r="112" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B112" s="6"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="8"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
       <c r="W112" s="4"/>
     </row>
     <row r="113" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
       <c r="W113" s="4"/>
     </row>
     <row r="114" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B114" s="6"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="8"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
       <c r="W114" s="4"/>
     </row>
     <row r="115" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="8"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="8"/>
-      <c r="V115" s="8"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="7"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
       <c r="W115" s="4"/>
     </row>
     <row r="116" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B116" s="6"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="8"/>
-      <c r="T116" s="8"/>
-      <c r="U116" s="8"/>
-      <c r="V116" s="8"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
       <c r="W116" s="4"/>
     </row>
     <row r="117" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="8"/>
-      <c r="T117" s="8"/>
-      <c r="U117" s="8"/>
-      <c r="V117" s="8"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
       <c r="W117" s="4"/>
     </row>
     <row r="118" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B118" s="6"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="8"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7"/>
       <c r="W118" s="4"/>
     </row>
     <row r="119" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B119" s="6"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8"/>
-      <c r="V119" s="8"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
       <c r="W119" s="4"/>
     </row>
     <row r="120" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-      <c r="V120" s="8"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="7"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
+      <c r="V120" s="7"/>
       <c r="W120" s="4"/>
     </row>
     <row r="121" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="8"/>
-      <c r="T121" s="8"/>
-      <c r="U121" s="8"/>
-      <c r="V121" s="8"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
       <c r="W121" s="4"/>
     </row>
     <row r="122" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B122" s="6"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="8"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
-      <c r="V122" s="8"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
       <c r="W122" s="4"/>
     </row>
     <row r="123" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B123" s="6"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="8"/>
-      <c r="T123" s="8"/>
-      <c r="U123" s="8"/>
-      <c r="V123" s="8"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
       <c r="W123" s="4"/>
     </row>
     <row r="124" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B124" s="6"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
-      <c r="P124" s="7"/>
-      <c r="Q124" s="7"/>
-      <c r="R124" s="7"/>
-      <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8"/>
-      <c r="V124" s="8"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="7"/>
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
       <c r="W124" s="4"/>
     </row>
     <row r="125" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B125" s="6"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
-      <c r="P125" s="7"/>
-      <c r="Q125" s="7"/>
-      <c r="R125" s="7"/>
-      <c r="S125" s="8"/>
-      <c r="T125" s="8"/>
-      <c r="U125" s="8"/>
-      <c r="V125" s="8"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
       <c r="W125" s="4"/>
     </row>
     <row r="126" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="8"/>
-      <c r="T126" s="8"/>
-      <c r="U126" s="8"/>
-      <c r="V126" s="8"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="7"/>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
       <c r="W126" s="4"/>
     </row>
     <row r="127" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B127" s="6"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
-      <c r="R127" s="7"/>
-      <c r="S127" s="8"/>
-      <c r="T127" s="8"/>
-      <c r="U127" s="8"/>
-      <c r="V127" s="8"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
       <c r="W127" s="4"/>
     </row>
     <row r="128" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B128" s="6"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
-      <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
-      <c r="P128" s="7"/>
-      <c r="Q128" s="7"/>
-      <c r="R128" s="7"/>
-      <c r="S128" s="8"/>
-      <c r="T128" s="8"/>
-      <c r="U128" s="8"/>
-      <c r="V128" s="8"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="7"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+      <c r="V128" s="7"/>
       <c r="W128" s="4"/>
     </row>
     <row r="129" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7"/>
-      <c r="R129" s="7"/>
-      <c r="S129" s="8"/>
-      <c r="T129" s="8"/>
-      <c r="U129" s="8"/>
-      <c r="V129" s="8"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="7"/>
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+      <c r="V129" s="7"/>
       <c r="W129" s="4"/>
     </row>
     <row r="130" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
-      <c r="N130" s="7"/>
-      <c r="O130" s="7"/>
-      <c r="P130" s="7"/>
-      <c r="Q130" s="7"/>
-      <c r="R130" s="7"/>
-      <c r="S130" s="8"/>
-      <c r="T130" s="8"/>
-      <c r="U130" s="8"/>
-      <c r="V130" s="8"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="7"/>
+      <c r="T130" s="7"/>
+      <c r="U130" s="7"/>
+      <c r="V130" s="7"/>
       <c r="W130" s="4"/>
     </row>
     <row r="131" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="7"/>
-      <c r="R131" s="7"/>
-      <c r="S131" s="8"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
-      <c r="V131" s="8"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="7"/>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
       <c r="W131" s="4"/>
     </row>
     <row r="132" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B132" s="6"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="7"/>
-      <c r="R132" s="7"/>
-      <c r="S132" s="8"/>
-      <c r="T132" s="8"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="8"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="7"/>
+      <c r="T132" s="7"/>
+      <c r="U132" s="7"/>
+      <c r="V132" s="7"/>
       <c r="W132" s="4"/>
     </row>
     <row r="133" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B133" s="6"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="7"/>
-      <c r="R133" s="7"/>
-      <c r="S133" s="8"/>
-      <c r="T133" s="8"/>
-      <c r="U133" s="8"/>
-      <c r="V133" s="8"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="7"/>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
       <c r="W133" s="4"/>
     </row>
     <row r="134" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B134" s="6"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="7"/>
-      <c r="R134" s="7"/>
-      <c r="S134" s="8"/>
-      <c r="T134" s="8"/>
-      <c r="U134" s="8"/>
-      <c r="V134" s="8"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="7"/>
+      <c r="T134" s="7"/>
+      <c r="U134" s="7"/>
+      <c r="V134" s="7"/>
       <c r="W134" s="4"/>
     </row>
     <row r="135" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B135" s="6"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="7"/>
-      <c r="S135" s="8"/>
-      <c r="T135" s="8"/>
-      <c r="U135" s="8"/>
-      <c r="V135" s="8"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="7"/>
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
       <c r="W135" s="4"/>
     </row>
     <row r="136" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B136" s="6"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
-      <c r="P136" s="7"/>
-      <c r="Q136" s="7"/>
-      <c r="R136" s="7"/>
-      <c r="S136" s="8"/>
-      <c r="T136" s="8"/>
-      <c r="U136" s="8"/>
-      <c r="V136" s="8"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="7"/>
+      <c r="T136" s="7"/>
+      <c r="U136" s="7"/>
+      <c r="V136" s="7"/>
       <c r="W136" s="4"/>
     </row>
     <row r="137" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B137" s="6"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="7"/>
-      <c r="S137" s="8"/>
-      <c r="T137" s="8"/>
-      <c r="U137" s="8"/>
-      <c r="V137" s="8"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
       <c r="W137" s="4"/>
     </row>
     <row r="138" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B138" s="6"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
-      <c r="P138" s="7"/>
-      <c r="Q138" s="7"/>
-      <c r="R138" s="7"/>
-      <c r="S138" s="8"/>
-      <c r="T138" s="8"/>
-      <c r="U138" s="8"/>
-      <c r="V138" s="8"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="7"/>
+      <c r="T138" s="7"/>
+      <c r="U138" s="7"/>
+      <c r="V138" s="7"/>
       <c r="W138" s="4"/>
     </row>
     <row r="139" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="7"/>
-      <c r="Q139" s="7"/>
-      <c r="R139" s="7"/>
-      <c r="S139" s="8"/>
-      <c r="T139" s="8"/>
-      <c r="U139" s="8"/>
-      <c r="V139" s="8"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="7"/>
+      <c r="T139" s="7"/>
+      <c r="U139" s="7"/>
+      <c r="V139" s="7"/>
       <c r="W139" s="4"/>
     </row>
     <row r="140" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B140" s="6"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="7"/>
-      <c r="M140" s="7"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="7"/>
-      <c r="P140" s="7"/>
-      <c r="Q140" s="7"/>
-      <c r="R140" s="7"/>
-      <c r="S140" s="8"/>
-      <c r="T140" s="8"/>
-      <c r="U140" s="8"/>
-      <c r="V140" s="8"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="7"/>
+      <c r="T140" s="7"/>
+      <c r="U140" s="7"/>
+      <c r="V140" s="7"/>
       <c r="W140" s="4"/>
     </row>
     <row r="141" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
-      <c r="P141" s="7"/>
-      <c r="Q141" s="7"/>
-      <c r="R141" s="7"/>
-      <c r="S141" s="8"/>
-      <c r="T141" s="8"/>
-      <c r="U141" s="8"/>
-      <c r="V141" s="8"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="7"/>
+      <c r="T141" s="7"/>
+      <c r="U141" s="7"/>
+      <c r="V141" s="7"/>
       <c r="W141" s="4"/>
     </row>
     <row r="142" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B142" s="6"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="7"/>
-      <c r="O142" s="7"/>
-      <c r="P142" s="7"/>
-      <c r="Q142" s="7"/>
-      <c r="R142" s="7"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="8"/>
-      <c r="V142" s="8"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="7"/>
+      <c r="T142" s="7"/>
+      <c r="U142" s="7"/>
+      <c r="V142" s="7"/>
       <c r="W142" s="4"/>
     </row>
     <row r="143" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="7"/>
-      <c r="M143" s="7"/>
-      <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
-      <c r="P143" s="7"/>
-      <c r="Q143" s="7"/>
-      <c r="R143" s="7"/>
-      <c r="S143" s="8"/>
-      <c r="T143" s="8"/>
-      <c r="U143" s="8"/>
-      <c r="V143" s="8"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="7"/>
+      <c r="T143" s="7"/>
+      <c r="U143" s="7"/>
+      <c r="V143" s="7"/>
       <c r="W143" s="4"/>
     </row>
     <row r="144" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
-      <c r="N144" s="7"/>
-      <c r="O144" s="7"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="7"/>
-      <c r="R144" s="7"/>
-      <c r="S144" s="8"/>
-      <c r="T144" s="8"/>
-      <c r="U144" s="8"/>
-      <c r="V144" s="8"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="7"/>
+      <c r="T144" s="7"/>
+      <c r="U144" s="7"/>
+      <c r="V144" s="7"/>
       <c r="W144" s="4"/>
     </row>
     <row r="145" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B145" s="9"/>
-      <c r="W145" s="10"/>
+      <c r="B145" s="8"/>
+      <c r="W145" s="9"/>
     </row>
     <row r="146" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B146" s="9"/>
-      <c r="W146" s="10"/>
+      <c r="B146" s="8"/>
+      <c r="W146" s="9"/>
     </row>
     <row r="147" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B147" s="9"/>
-      <c r="W147" s="10"/>
+      <c r="B147" s="8"/>
+      <c r="W147" s="9"/>
     </row>
     <row r="148" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B148" s="9"/>
-      <c r="W148" s="10"/>
+      <c r="B148" s="8"/>
+      <c r="W148" s="9"/>
     </row>
     <row r="149" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B149" s="9"/>
-      <c r="W149" s="10"/>
+      <c r="B149" s="8"/>
+      <c r="W149" s="9"/>
     </row>
     <row r="150" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B150" s="9"/>
-      <c r="W150" s="10"/>
+      <c r="B150" s="8"/>
+      <c r="W150" s="9"/>
     </row>
     <row r="151" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B151" s="9"/>
-      <c r="W151" s="10"/>
+      <c r="B151" s="8"/>
+      <c r="W151" s="9"/>
     </row>
     <row r="152" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B152" s="9"/>
-      <c r="W152" s="10"/>
+      <c r="B152" s="8"/>
+      <c r="W152" s="9"/>
     </row>
     <row r="153" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B153" s="9"/>
-      <c r="W153" s="10"/>
+      <c r="B153" s="8"/>
+      <c r="W153" s="9"/>
     </row>
     <row r="154" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B154" s="9"/>
-      <c r="W154" s="10"/>
+      <c r="B154" s="8"/>
+      <c r="W154" s="9"/>
     </row>
     <row r="155" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B155" s="9"/>
-      <c r="W155" s="10"/>
+      <c r="B155" s="8"/>
+      <c r="W155" s="9"/>
     </row>
     <row r="156" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B156" s="9"/>
-      <c r="W156" s="10"/>
+      <c r="B156" s="8"/>
+      <c r="W156" s="9"/>
     </row>
     <row r="157" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B157" s="9"/>
-      <c r="W157" s="10"/>
+      <c r="B157" s="8"/>
+      <c r="W157" s="9"/>
     </row>
     <row r="158" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B158" s="9"/>
-      <c r="W158" s="10"/>
+      <c r="B158" s="8"/>
+      <c r="W158" s="9"/>
     </row>
     <row r="159" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B159" s="9"/>
-      <c r="W159" s="10"/>
+      <c r="B159" s="8"/>
+      <c r="W159" s="9"/>
     </row>
     <row r="160" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B160" s="9"/>
+      <c r="B160" s="8"/>
     </row>
     <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B161" s="9"/>
+      <c r="B161" s="8"/>
     </row>
     <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B162" s="9"/>
+      <c r="B162" s="8"/>
     </row>
     <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B163" s="9"/>
+      <c r="B163" s="8"/>
     </row>
     <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B164" s="9"/>
+      <c r="B164" s="8"/>
     </row>
     <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B165" s="9"/>
+      <c r="B165" s="8"/>
     </row>
     <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B166" s="9"/>
+      <c r="B166" s="8"/>
     </row>
     <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B167" s="9"/>
+      <c r="B167" s="8"/>
     </row>
     <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B168" s="9"/>
+      <c r="B168" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4217,7 +4242,23 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ตรวจงาน/รายการตรวจสอบแผนภาพ พี เดี๋ยวรวม.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบแผนภาพ พี เดี๋ยวรวม.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD7F32-07E7-4ABB-8C1E-BA7E11F485C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F87C12-2484-42FE-82F0-BB3A95F60257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>คำผิด</t>
   </si>
@@ -116,6 +116,15 @@
   <si>
     <t>UC Description 
 มอดูลพนักงานขับรถ</t>
+  </si>
+  <si>
+    <t>v1.2.2</t>
+  </si>
+  <si>
+    <t>UC Description มอดูลรถ</t>
+  </si>
+  <si>
+    <t>UC Description มอดูลลูกค้า</t>
   </si>
 </sst>
 </file>
@@ -254,6 +263,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -262,30 +295,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -618,16 +627,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -660,7 +669,7 @@
       <c r="O2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="Q2" s="13" t="s">
@@ -669,17 +678,17 @@
       <c r="R2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
     </row>
     <row r="3" spans="2:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -690,17 +699,17 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="18"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
     </row>
     <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -741,7 +750,7 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="11"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
@@ -776,7 +785,7 @@
       <c r="W5" s="4"/>
     </row>
     <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -817,7 +826,7 @@
       <c r="W6" s="4"/>
     </row>
     <row r="7" spans="2:23" ht="60.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -857,16 +866,26 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="2:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>242718</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -874,7 +893,10 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:R9" si="0">SUM(F8:Q8)</f>
+        <v>3</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -882,23 +904,40 @@
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>242718</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -4234,6 +4273,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4242,21 +4296,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
